--- a/public/laporan_data_inventaris.xlsx
+++ b/public/laporan_data_inventaris.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>DATA INVENTARIS</t>
   </si>
@@ -39,6 +39,429 @@
   </si>
   <si>
     <t>LOKASI PENYIMPANAN</t>
+  </si>
+  <si>
+    <t>Motor Jupiter Z CW F1</t>
+  </si>
+  <si>
+    <t>perlu perbaikan</t>
+  </si>
+  <si>
+    <t>1 Buah</t>
+  </si>
+  <si>
+    <t>07-09-2015</t>
+  </si>
+  <si>
+    <t>Rumah Staf</t>
+  </si>
+  <si>
+    <t>Meja Rapat</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>2 Buah</t>
+  </si>
+  <si>
+    <t>13-09-2015</t>
+  </si>
+  <si>
+    <t>Ruang Rapat</t>
+  </si>
+  <si>
+    <t>Printer HP 1010</t>
+  </si>
+  <si>
+    <t>rusak</t>
+  </si>
+  <si>
+    <t>07-04-2015</t>
+  </si>
+  <si>
+    <t>Gudang</t>
+  </si>
+  <si>
+    <t>Meja Kerja</t>
+  </si>
+  <si>
+    <t>23-04-2015</t>
+  </si>
+  <si>
+    <t>Ruangan Staf</t>
+  </si>
+  <si>
+    <t>Kursi Tamu / Sofa</t>
+  </si>
+  <si>
+    <t>1 Stel</t>
+  </si>
+  <si>
+    <t>16-06-2015</t>
+  </si>
+  <si>
+    <t>Ruangan Kepdes</t>
+  </si>
+  <si>
+    <t>Infokus / Proyektor</t>
+  </si>
+  <si>
+    <t>1 Unit</t>
+  </si>
+  <si>
+    <t>11-05-2016</t>
+  </si>
+  <si>
+    <t>Kursi Putar</t>
+  </si>
+  <si>
+    <t>05-03-2016</t>
+  </si>
+  <si>
+    <t>Laptop Lenovo</t>
+  </si>
+  <si>
+    <t>25-07-2016</t>
+  </si>
+  <si>
+    <t>Laptop Asus</t>
+  </si>
+  <si>
+    <t>01-03-2016</t>
+  </si>
+  <si>
+    <t>Motor Fino</t>
+  </si>
+  <si>
+    <t>20-10-2016</t>
+  </si>
+  <si>
+    <t>Printer Canon</t>
+  </si>
+  <si>
+    <t>11-04-2016</t>
+  </si>
+  <si>
+    <t>Kompor Gas</t>
+  </si>
+  <si>
+    <t>13-01-2016</t>
+  </si>
+  <si>
+    <t>Dapur</t>
+  </si>
+  <si>
+    <t>Tabung Gas</t>
+  </si>
+  <si>
+    <t>Foto Hari Jadi Bantaeng</t>
+  </si>
+  <si>
+    <t>17-06-2016</t>
+  </si>
+  <si>
+    <t>10-03-2017</t>
+  </si>
+  <si>
+    <t>Lemari Arsip</t>
+  </si>
+  <si>
+    <t>18-04-2017</t>
+  </si>
+  <si>
+    <t>TV Sharp</t>
+  </si>
+  <si>
+    <t>12-05-2017</t>
+  </si>
+  <si>
+    <t>Kursi Kerja Future</t>
+  </si>
+  <si>
+    <t>8 Buah</t>
+  </si>
+  <si>
+    <t>21-06-2017</t>
+  </si>
+  <si>
+    <t>Kipas Angin</t>
+  </si>
+  <si>
+    <t>27-06-2017</t>
+  </si>
+  <si>
+    <t>Kursi Plastik Hijau</t>
+  </si>
+  <si>
+    <t>60 Buah</t>
+  </si>
+  <si>
+    <t>13-07-2017</t>
+  </si>
+  <si>
+    <t>Cangkir Sago</t>
+  </si>
+  <si>
+    <t>2 Lusin</t>
+  </si>
+  <si>
+    <t>17-07-2017</t>
+  </si>
+  <si>
+    <t>Piring Sago</t>
+  </si>
+  <si>
+    <t>16-08-2017</t>
+  </si>
+  <si>
+    <t>Bossara</t>
+  </si>
+  <si>
+    <t>1 Lusin</t>
+  </si>
+  <si>
+    <t>27-08-2017</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>07-09-2017</t>
+  </si>
+  <si>
+    <t>Rak Buku Perpustakaan</t>
+  </si>
+  <si>
+    <t>18-09-2017</t>
+  </si>
+  <si>
+    <t>Printer Epson</t>
+  </si>
+  <si>
+    <t>27-09-2017</t>
+  </si>
+  <si>
+    <t>27-10-2017</t>
+  </si>
+  <si>
+    <t>Laptop Acer</t>
+  </si>
+  <si>
+    <t>09-03-2018</t>
+  </si>
+  <si>
+    <t>Kursi BPD</t>
+  </si>
+  <si>
+    <t>23-04-2018</t>
+  </si>
+  <si>
+    <t>Meja Kerja BPD</t>
+  </si>
+  <si>
+    <t>26-04-2018</t>
+  </si>
+  <si>
+    <t>Taplak Meja</t>
+  </si>
+  <si>
+    <t>3 Buah</t>
+  </si>
+  <si>
+    <t>15-06-2018</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>1 Paket</t>
+  </si>
+  <si>
+    <t>28-06-2018</t>
+  </si>
+  <si>
+    <t>Meja Kerja Perpustakaan</t>
+  </si>
+  <si>
+    <t>15-07-2018</t>
+  </si>
+  <si>
+    <t>Ruangan Perpustakaan</t>
+  </si>
+  <si>
+    <t>Komputer Perpustakaan</t>
+  </si>
+  <si>
+    <t>22-08-2018</t>
+  </si>
+  <si>
+    <t>Meja Kecil Perpustakaan</t>
+  </si>
+  <si>
+    <t>12 Buah</t>
+  </si>
+  <si>
+    <t>28-08-2018</t>
+  </si>
+  <si>
+    <t>10-10-2018</t>
+  </si>
+  <si>
+    <t>Kursi Kerja Perpustakaan</t>
+  </si>
+  <si>
+    <t>Printer Perpustakaan</t>
+  </si>
+  <si>
+    <t>20-10-2018</t>
+  </si>
+  <si>
+    <t>Lemari Arsip Biru</t>
+  </si>
+  <si>
+    <t>14-11-2018</t>
+  </si>
+  <si>
+    <t>Telivisi</t>
+  </si>
+  <si>
+    <t>12-02-2019</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>4 Unit</t>
+  </si>
+  <si>
+    <t>20-03-2019</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>2 Unit</t>
+  </si>
+  <si>
+    <t>26-03-2019</t>
+  </si>
+  <si>
+    <t>20-04-2019</t>
+  </si>
+  <si>
+    <t>Lemari Arsip Bangkas Biru</t>
+  </si>
+  <si>
+    <t>29-04-2019</t>
+  </si>
+  <si>
+    <t>4 Buah</t>
+  </si>
+  <si>
+    <t>07-05-2019</t>
+  </si>
+  <si>
+    <t>Meja</t>
+  </si>
+  <si>
+    <t>Motor NMAX</t>
+  </si>
+  <si>
+    <t>13-06-2019</t>
+  </si>
+  <si>
+    <t>Kursi Futura</t>
+  </si>
+  <si>
+    <t>20 Buah</t>
+  </si>
+  <si>
+    <t>05-07-2019</t>
+  </si>
+  <si>
+    <t>12-03-2020</t>
+  </si>
+  <si>
+    <t>Layar LCD</t>
+  </si>
+  <si>
+    <t>13-07-2020</t>
+  </si>
+  <si>
+    <t>Printer HP Ink Tank 115</t>
+  </si>
+  <si>
+    <t>25-07-2020</t>
+  </si>
+  <si>
+    <t>Pengadaan Laptop dan Printer</t>
+  </si>
+  <si>
+    <t>17-04-2022</t>
+  </si>
+  <si>
+    <t>Pengadaan Kursi Rapat</t>
+  </si>
+  <si>
+    <t>100 Buah</t>
+  </si>
+  <si>
+    <t>20-06-2022</t>
+  </si>
+  <si>
+    <t>Pengadaan HP</t>
+  </si>
+  <si>
+    <t>15-07-2022</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>23-08-2022</t>
+  </si>
+  <si>
+    <t>Mobil Siaga</t>
+  </si>
+  <si>
+    <t>25-05-2023</t>
+  </si>
+  <si>
+    <t>Kantor Desa</t>
+  </si>
+  <si>
+    <t>Pemotong Rumput</t>
+  </si>
+  <si>
+    <t>20-07-2023</t>
+  </si>
+  <si>
+    <t>Sound System</t>
+  </si>
+  <si>
+    <t>10-08-2023</t>
+  </si>
+  <si>
+    <t>Lampu Jalan</t>
+  </si>
+  <si>
+    <t>11 Titik</t>
+  </si>
+  <si>
+    <t>22-08-2023</t>
+  </si>
+  <si>
+    <t>Dibeberapa titik jalan di kampung desa barua</t>
+  </si>
+  <si>
+    <t>Mobil Truck</t>
+  </si>
+  <si>
+    <t>13-05-2025</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Total Harga:</t>
@@ -421,21 +844,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:G4"/>
+      <selection activeCell="A3" sqref="A3:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.63" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.234" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.521" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.343" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="34.039" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.591" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.474" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="23.304" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.164" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="24.482" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.521" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="52.892" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" customHeight="1" ht="30">
@@ -467,17 +890,1397 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17360000</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2440000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>700000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6100000</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3">
+        <v>900000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7315000</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3">
+        <v>18900000</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3">
+        <v>700000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3">
+        <v>900000</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="3">
+        <v>500000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="3">
+        <v>240000</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6400000</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="3">
+        <v>19677000</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="3">
+        <v>7500000</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="3">
+        <v>900000</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2350000</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3600000</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3365000</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="3">
+        <v>32000000</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5400000</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3500000</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2800000</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="3">
+        <v>600000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="3">
+        <v>8000000</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="3">
+        <v>8857000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2120000</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="3">
+        <v>9784000</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3970000</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4000000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="3">
+        <v>201800000</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4442000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="3">
+        <v>31470000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="3">
+        <v>100000000</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="4">
+        <v>635365000</v>
+      </c>
+      <c r="G64" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
